--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1859.399178223585</v>
+        <v>1108.082373249456</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.5508688405959</v>
+        <v>37.55220712465517</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.21166429254227</v>
+        <v>20.2017357548269</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.31997367551672</v>
+        <v>16.7319018796279</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1783.160000000015</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58000000000001</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.61595173195241</v>
+        <v>33.15868643584639</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.28956874289246</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1002,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.85355423476665</v>
+        <v>41.52472093889505</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.21602380635411</v>
+        <v>42.39628893866063</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,10 +1115,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1168,13 +1168,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1185,10 +1185,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1196,13 +1196,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1224,13 +1224,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1238,13 +1238,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1255,68 +1255,12 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1430,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1441,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1452,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1463,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1474,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>202.8800000000007</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
@@ -1485,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>217.1050000000006</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1496,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>220.4700000000007</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -1507,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>229.3700000000007</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -1518,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.2350000000007</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -1529,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>163.9900000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1540,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>163.9100000000008</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1551,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.6700000000008</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -1562,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>158.3650000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1573,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.5850000000008</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1584,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>122.37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1595,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>134.135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -1606,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>125.835</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>135.895</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -1628,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>135.965</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1639,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1650,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1661,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1672,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1683,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1694,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>202.8800000000007</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -1705,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>217.1050000000006</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>220.4700000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -1727,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>229.3700000000007</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -1738,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>221.2350000000007</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -1749,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.9900000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1760,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.9100000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -1771,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.6700000000008</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
@@ -1782,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>158.3650000000008</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41">
@@ -1793,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5850000000008</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>102.8800000000007</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1851,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>117.1050000000006</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -1862,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>120.4700000000007</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1873,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>129.3700000000007</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1884,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>121.2350000000007</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1895,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>63.99000000000083</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1906,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>63.91000000000079</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1917,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>61.67000000000081</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1928,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>58.3650000000008</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1939,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>52.5850000000008</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1997,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2008,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2019,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2030,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2151,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2162,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2173,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2184,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2195,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2206,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2217,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2228,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2239,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2250,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,7 +2235,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2302,7 +2246,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2313,7 +2257,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2324,7 +2268,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2338,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2346,10 +2290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2357,10 +2301,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2368,10 +2312,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2379,10 +2323,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2393,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2401,10 +2345,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2412,10 +2356,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2423,10 +2367,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2434,10 +2378,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2448,53 +2392,9 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
